--- a/data/trans_dic/P1401-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.009204467699727386</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.031941888327756</v>
+        <v>0.03194188832775599</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.01544153397621802</v>
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00225807116062019</v>
+        <v>0.002260159874126714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01935678910375255</v>
+        <v>0.02041642846451432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006034987875566608</v>
+        <v>0.006092782454468397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01172832069910317</v>
+        <v>0.01222169399917378</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01137546711437181</v>
+        <v>0.0116776030441547</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002650444615048495</v>
+        <v>0.002628399719466326</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009205470220187896</v>
+        <v>0.008439354613750677</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01821517264746558</v>
+        <v>0.0184266555241997</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01416676392725744</v>
+        <v>0.01212414369679116</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02262751307664141</v>
+        <v>0.02316101317993587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04812268261684187</v>
+        <v>0.04860971387800599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03402047204589179</v>
+        <v>0.03518487133262818</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04601287359546869</v>
+        <v>0.04747340862066771</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03154739589843956</v>
+        <v>0.03265158640928053</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01603440238499201</v>
+        <v>0.01636178452230282</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02849874427356722</v>
+        <v>0.02674334402400236</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03588568051397782</v>
+        <v>0.03673781518684435</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.007867120920682421</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02070562872417034</v>
+        <v>0.02070562872417033</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002541317104530988</v>
+        <v>0.002504787043424951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001941246004374702</v>
+        <v>0.001937314680936736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01273786142964647</v>
+        <v>0.01262575458855542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006192662655609981</v>
+        <v>0.005840575468119077</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009705617080965182</v>
+        <v>0.009902490857504847</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006765990279836692</v>
+        <v>0.005798251360266527</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002778239494465643</v>
+        <v>0.002662573913032484</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01375479689234617</v>
+        <v>0.01384965717126361</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02376318509750007</v>
+        <v>0.02306574959665144</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01933370081617708</v>
+        <v>0.01985480697056062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03836022667149622</v>
+        <v>0.03715869700969111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0384855891033309</v>
+        <v>0.03996878826491761</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03204863477667696</v>
+        <v>0.0313012643334882</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03097286192164717</v>
+        <v>0.03163786582693363</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02449933891067896</v>
+        <v>0.02411374603389747</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02001004427977566</v>
+        <v>0.01998844583354691</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03019940851899036</v>
+        <v>0.03096302894770063</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01422885310046717</v>
+        <v>0.01244172384257577</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004293383968651423</v>
+        <v>0.004537390593879767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0158350164736275</v>
+        <v>0.01491967818330351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.015139063503853</v>
+        <v>0.01411066458319025</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01900544274366992</v>
+        <v>0.02086584351665399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006249556275568452</v>
+        <v>0.006645026243686039</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01711392213432828</v>
+        <v>0.01661345755048995</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01155439006094578</v>
+        <v>0.01161190871176834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01512644705188479</v>
+        <v>0.0149634226464502</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04141731258505739</v>
+        <v>0.03882983000169407</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02584846455781661</v>
+        <v>0.02494886518674517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04325942008735381</v>
+        <v>0.044284093843544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0622721536277672</v>
+        <v>0.05844641700052367</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08582473997427575</v>
+        <v>0.09407145227441256</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03352383348434512</v>
+        <v>0.03384976353458233</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03892328141438311</v>
+        <v>0.03827177819183682</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03585863145547945</v>
+        <v>0.03417488596797954</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0361211759307657</v>
+        <v>0.03685634334802512</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.006532479149101533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01870104684138283</v>
+        <v>0.01870104684138284</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.01944382582885313</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007026141525420157</v>
+        <v>0.007058160519945436</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003049578061077582</v>
+        <v>0.003002052695249132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01210288126404106</v>
+        <v>0.01297132016578649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009398180100640557</v>
+        <v>0.01030667920736534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01267789501623671</v>
+        <v>0.01273622835243576</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01262553096186302</v>
+        <v>0.01337609470013839</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009853111004777719</v>
+        <v>0.01022013603735581</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008424788538718652</v>
+        <v>0.008102972271188788</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01474824035302368</v>
+        <v>0.01417294897062854</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02067428985936463</v>
+        <v>0.02187422251875549</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01203153996940184</v>
+        <v>0.01281789710346368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02682469829619943</v>
+        <v>0.02714082094407504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0338241788253223</v>
+        <v>0.03557203929684232</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0352769137236509</v>
+        <v>0.03469212529970126</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02600771093109581</v>
+        <v>0.028713966336847</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02302746340830806</v>
+        <v>0.02267897703751562</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01922404268850772</v>
+        <v>0.01919606335452056</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02452494623622347</v>
+        <v>0.02390741577593614</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001894381628515991</v>
+        <v>0.001948665414563416</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007528498584267456</v>
+        <v>0.007291697007684055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007136661739225287</v>
+        <v>0.006799441940067273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01432031085356143</v>
+        <v>0.0145577874460181</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01586831778645376</v>
+        <v>0.01742927495643055</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02394809670810358</v>
+        <v>0.02396186518770925</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01116716172035384</v>
+        <v>0.01133847496924853</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01441334502395417</v>
+        <v>0.01463847850327121</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01831514355355665</v>
+        <v>0.01860504821976068</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01970093369512604</v>
+        <v>0.01902308253606971</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02541961241391262</v>
+        <v>0.02643413691243156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02423441463739525</v>
+        <v>0.02437440187731119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03740680323765268</v>
+        <v>0.03863455613213902</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04239974618275785</v>
+        <v>0.04329645627374627</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04297042562887406</v>
+        <v>0.04376767050737393</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02663716559635019</v>
+        <v>0.02633648460494913</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03110827655628504</v>
+        <v>0.0305866902311308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0315994325436295</v>
+        <v>0.03222742708991883</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.01221746954948864</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.02351315510203579</v>
+        <v>0.0235131551020358</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.01466679870329339</v>
@@ -1225,22 +1225,22 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.01049066309763527</v>
+        <v>0.01064279684924715</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.006790262025839626</v>
+        <v>0.006597917960709737</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01650874712658526</v>
+        <v>0.0166863000275544</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008860977097440147</v>
+        <v>0.008914930466576231</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00562928425426138</v>
+        <v>0.004977507037249145</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01289224461705798</v>
+        <v>0.0127096820958421</v>
       </c>
     </row>
     <row r="21">
@@ -1251,27 +1251,27 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01528540187740612</v>
+        <v>0.01667054761506256</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.02645858599815773</v>
+        <v>0.0271124656559813</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02140789089832592</v>
+        <v>0.02038867141173592</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03238760630868825</v>
+        <v>0.03178838846314577</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02321290324067743</v>
+        <v>0.02203462098848122</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01658147276817111</v>
+        <v>0.01709661302093627</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02500232596699397</v>
+        <v>0.02558300783617325</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00823410404168678</v>
+        <v>0.008068163499401003</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006185914901557872</v>
+        <v>0.006018597423242354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01607710417334321</v>
+        <v>0.01634451120951689</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01559995218786431</v>
+        <v>0.01543551992823481</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01582010485889948</v>
+        <v>0.01535355013223915</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01941075747316124</v>
+        <v>0.01948498617736269</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01282369146501422</v>
+        <v>0.01303377006321008</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01196570911251172</v>
+        <v>0.01180070290062366</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01873363886583685</v>
+        <v>0.01896789111319427</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01606353261251449</v>
+        <v>0.01571947655135894</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01243919682810903</v>
+        <v>0.01252602242454587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02487561976071962</v>
+        <v>0.02520638150774512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02580484272144992</v>
+        <v>0.02565144273156521</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02562875243466229</v>
+        <v>0.02636490414063905</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02701683547459149</v>
+        <v>0.02661894696249318</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01942680300885852</v>
+        <v>0.01910569968423253</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01797230730365115</v>
+        <v>0.01769514444053161</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0244669201560968</v>
+        <v>0.02468148125109442</v>
       </c>
     </row>
     <row r="25">
@@ -1614,28 +1614,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10658</v>
+        <v>11242</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1898</v>
+        <v>1916</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4070</v>
+        <v>4242</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5556</v>
+        <v>5703</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7145</v>
+        <v>6550</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18926</v>
+        <v>19146</v>
       </c>
     </row>
     <row r="7">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6194</v>
+        <v>5301</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9709</v>
+        <v>9938</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26497</v>
+        <v>26765</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10698</v>
+        <v>11064</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15969</v>
+        <v>16476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15408</v>
+        <v>15947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12052</v>
+        <v>12299</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22119</v>
+        <v>20757</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37286</v>
+        <v>38172</v>
       </c>
     </row>
     <row r="8">
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6143</v>
+        <v>6089</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2093</v>
+        <v>1974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4094</v>
+        <v>4177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5121</v>
+        <v>4388</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2082</v>
+        <v>1996</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12435</v>
+        <v>12521</v>
       </c>
     </row>
     <row r="11">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9952</v>
+        <v>9660</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7293</v>
+        <v>7490</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18500</v>
+        <v>17920</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13009</v>
+        <v>13510</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11931</v>
+        <v>11653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13064</v>
+        <v>13345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18541</v>
+        <v>18249</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14998</v>
+        <v>14981</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27302</v>
+        <v>27993</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8956</v>
+        <v>7831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2241</v>
+        <v>2368</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7437</v>
+        <v>7007</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3938</v>
+        <v>3671</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3157</v>
+        <v>3466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1172</v>
+        <v>1246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15224</v>
+        <v>14778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7950</v>
+        <v>7989</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9940</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26069</v>
+        <v>24440</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13491</v>
+        <v>13021</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20317</v>
+        <v>20798</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16199</v>
+        <v>15204</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14257</v>
+        <v>15627</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6286</v>
+        <v>6347</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34624</v>
+        <v>34044</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24672</v>
+        <v>23514</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23737</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8143</v>
+        <v>8180</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3506</v>
+        <v>3451</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13666</v>
+        <v>14646</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7187</v>
+        <v>7882</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10470</v>
+        <v>10519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10864</v>
+        <v>11510</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18955</v>
+        <v>19661</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16643</v>
+        <v>16008</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29343</v>
+        <v>28199</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23962</v>
+        <v>25352</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13832</v>
+        <v>14736</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30288</v>
+        <v>30645</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25866</v>
+        <v>27203</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29134</v>
+        <v>28651</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22380</v>
+        <v>24708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44299</v>
+        <v>43628</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37977</v>
+        <v>37922</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48795</v>
+        <v>47567</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4673</v>
+        <v>4526</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4046</v>
+        <v>3855</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10887</v>
+        <v>11067</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11715</v>
+        <v>12867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19863</v>
+        <v>19874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14192</v>
+        <v>14409</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19587</v>
+        <v>19893</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>25575</v>
+        <v>25980</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10059</v>
+        <v>9713</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15778</v>
+        <v>16408</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13740</v>
+        <v>13820</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28438</v>
+        <v>29372</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31301</v>
+        <v>31963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35641</v>
+        <v>36302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33852</v>
+        <v>33470</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42275</v>
+        <v>41566</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44125</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="24">
@@ -2336,22 +2336,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>11638</v>
+        <v>11807</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>7347</v>
+        <v>7139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13927</v>
+        <v>14076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12195</v>
+        <v>12269</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7707</v>
+        <v>6815</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>13934</v>
+        <v>13737</v>
       </c>
     </row>
     <row r="27">
@@ -2362,27 +2362,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4079</v>
+        <v>4449</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>29352</v>
+        <v>30077</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23164</v>
+        <v>22061</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27322</v>
+        <v>26817</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31946</v>
+        <v>30325</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22703</v>
+        <v>23408</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27023</v>
+        <v>27651</v>
       </c>
     </row>
     <row r="28">
@@ -2467,31 +2467,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>28176</v>
+        <v>27609</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20944</v>
+        <v>20377</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55239</v>
+        <v>56157</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>55332</v>
+        <v>54748</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>55870</v>
+        <v>54223</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>70485</v>
+        <v>70754</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>89366</v>
+        <v>90830</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>82771</v>
+        <v>81629</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>132392</v>
+        <v>134048</v>
       </c>
     </row>
     <row r="31">
@@ -2502,31 +2502,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>54968</v>
+        <v>53791</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>42116</v>
+        <v>42410</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>85469</v>
+        <v>86605</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>91528</v>
+        <v>90983</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>90510</v>
+        <v>93110</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98104</v>
+        <v>96660</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>135382</v>
+        <v>133144</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>124320</v>
+        <v>122403</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>172910</v>
+        <v>174426</v>
       </c>
     </row>
     <row r="32">
